--- a/conf-core/src/test/resources/dataloader/devices-association-failure-test.xlsx
+++ b/conf-core/src/test/resources/dataloader/devices-association-failure-test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\dataloader-tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="18060" windowHeight="8580"/>
   </bookViews>
@@ -24,7 +29,7 @@
     <author>Vuppala, Vasu</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +62,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="physical_component" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="1" name="physical_component" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="437" sourceFile="H:\dev\conf\conf-dl\physical_component.txt">
       <textFields count="4">
         <textField/>
@@ -125,22 +130,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -170,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -178,44 +174,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="31"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="31"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -226,6 +192,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -278,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,7 +282,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,82 +491,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
